--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/63/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/63/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.38762</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4387.62</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>4.85548</v>
+        <v>5.631760000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>4855.48</v>
+        <v>5631.76</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.14604</v>
+        <v>6.245270000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>5146.04</v>
+        <v>6245.27</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>5.25231</v>
+        <v>6.516640000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>5252.31</v>
+        <v>6516.64</v>
       </c>
     </row>
     <row r="10">
@@ -543,1022 +543,1022 @@
         <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>5.26912</v>
+        <v>6.666729999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>5269.12</v>
+        <v>6666.73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278891</v>
       </c>
       <c r="B11" t="n">
-        <v>5.25317</v>
+        <v>6.74015</v>
       </c>
       <c r="C11" t="n">
-        <v>5253.17</v>
+        <v>6740.15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309818</v>
+        <v>0.309816</v>
       </c>
       <c r="B12" t="n">
-        <v>5.23033</v>
+        <v>6.79387</v>
       </c>
       <c r="C12" t="n">
-        <v>5230.33</v>
+        <v>6793.87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340743</v>
+        <v>0.340741</v>
       </c>
       <c r="B13" t="n">
-        <v>5.20646</v>
+        <v>6.82963</v>
       </c>
       <c r="C13" t="n">
-        <v>5206.46</v>
+        <v>6829.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371668</v>
+        <v>0.371667</v>
       </c>
       <c r="B14" t="n">
-        <v>5.18148</v>
+        <v>6.854100000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>5181.48</v>
+        <v>6854.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402593</v>
+        <v>0.402592</v>
       </c>
       <c r="B15" t="n">
-        <v>5.1552</v>
+        <v>6.87799</v>
       </c>
       <c r="C15" t="n">
-        <v>5155.2</v>
+        <v>6877.99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433518</v>
+        <v>0.433517</v>
       </c>
       <c r="B16" t="n">
-        <v>5.12842</v>
+        <v>6.8987</v>
       </c>
       <c r="C16" t="n">
-        <v>5128.42</v>
+        <v>6898.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464443</v>
+        <v>0.464442</v>
       </c>
       <c r="B17" t="n">
-        <v>5.10119</v>
+        <v>6.91711</v>
       </c>
       <c r="C17" t="n">
-        <v>5101.19</v>
+        <v>6917.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495368</v>
+        <v>0.495367</v>
       </c>
       <c r="B18" t="n">
-        <v>5.07171</v>
+        <v>6.93412</v>
       </c>
       <c r="C18" t="n">
-        <v>5071.71</v>
+        <v>6934.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526293</v>
+        <v>0.526292</v>
       </c>
       <c r="B19" t="n">
-        <v>5.03794</v>
+        <v>6.94961</v>
       </c>
       <c r="C19" t="n">
-        <v>5037.94</v>
+        <v>6949.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557218</v>
+        <v>0.557217</v>
       </c>
       <c r="B20" t="n">
-        <v>5.0033</v>
+        <v>6.96454</v>
       </c>
       <c r="C20" t="n">
-        <v>5003.3</v>
+        <v>6964.54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.5881420000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>4.96501</v>
+        <v>6.97875</v>
       </c>
       <c r="C21" t="n">
-        <v>4965.01</v>
+        <v>6978.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.619184</v>
       </c>
       <c r="B22" t="n">
-        <v>4.92573</v>
+        <v>6.991810000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>4925.73</v>
+        <v>6991.81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650356</v>
       </c>
       <c r="B23" t="n">
-        <v>4.88262</v>
+        <v>7.00414</v>
       </c>
       <c r="C23" t="n">
-        <v>4882.62</v>
+        <v>7004.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.6815290000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>4.83881</v>
+        <v>7.016100000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>4838.81</v>
+        <v>7016.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712706</v>
       </c>
       <c r="B25" t="n">
-        <v>4.79164</v>
+        <v>7.02714</v>
       </c>
       <c r="C25" t="n">
-        <v>4791.64</v>
+        <v>7027.14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74388</v>
+        <v>0.743878</v>
       </c>
       <c r="B26" t="n">
-        <v>4.74378</v>
+        <v>7.03782</v>
       </c>
       <c r="C26" t="n">
-        <v>4743.78</v>
+        <v>7037.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775057</v>
+        <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>4.69289</v>
+        <v>7.04779</v>
       </c>
       <c r="C27" t="n">
-        <v>4692.89</v>
+        <v>7047.79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.8062279999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>4.640779999999999</v>
+        <v>7.05724</v>
       </c>
       <c r="C28" t="n">
-        <v>4640.78</v>
+        <v>7057.24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837402</v>
+        <v>0.837401</v>
       </c>
       <c r="B29" t="n">
-        <v>4.58638</v>
+        <v>7.06627</v>
       </c>
       <c r="C29" t="n">
-        <v>4586.38</v>
+        <v>7066.27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868579</v>
+        <v>0.868578</v>
       </c>
       <c r="B30" t="n">
-        <v>4.53034</v>
+        <v>7.074890000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>4530.34</v>
+        <v>7074.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.89975</v>
       </c>
       <c r="B31" t="n">
-        <v>4.47297</v>
+        <v>7.08309</v>
       </c>
       <c r="C31" t="n">
-        <v>4472.97</v>
+        <v>7083.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930924</v>
+        <v>0.9309229999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>4.412859999999999</v>
+        <v>7.090850000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>4412.86</v>
+        <v>7090.85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962026</v>
+        <v>0.9621</v>
       </c>
       <c r="B33" t="n">
-        <v>4.256100000000001</v>
+        <v>7.09823</v>
       </c>
       <c r="C33" t="n">
-        <v>4256.1</v>
+        <v>7098.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.992984</v>
+        <v>0.993272</v>
       </c>
       <c r="B34" t="n">
-        <v>3.79193</v>
+        <v>7.10526</v>
       </c>
       <c r="C34" t="n">
-        <v>3791.93</v>
+        <v>7105.26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02393</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>4.18075</v>
+        <v>7.11192</v>
       </c>
       <c r="C35" t="n">
-        <v>4180.75</v>
+        <v>7111.92</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05498</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>4.13564</v>
+        <v>7.11821</v>
       </c>
       <c r="C36" t="n">
-        <v>4135.64</v>
+        <v>7118.21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08598</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>4.06294</v>
+        <v>7.1242</v>
       </c>
       <c r="C37" t="n">
-        <v>4062.94</v>
+        <v>7124.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11703</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>3.97037</v>
+        <v>7.12987</v>
       </c>
       <c r="C38" t="n">
-        <v>3970.37</v>
+        <v>7129.87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14807</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>3.91435</v>
+        <v>7.13521</v>
       </c>
       <c r="C39" t="n">
-        <v>3914.35</v>
+        <v>7135.21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17912</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>3.90742</v>
+        <v>7.14025</v>
       </c>
       <c r="C40" t="n">
-        <v>3907.42</v>
+        <v>7140.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21017</v>
+        <v>1.21286</v>
       </c>
       <c r="B41" t="n">
-        <v>3.84158</v>
+        <v>7.144979999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>3841.58</v>
+        <v>7144.98</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24061</v>
+        <v>1.24424</v>
       </c>
       <c r="B42" t="n">
-        <v>3.72118</v>
+        <v>7.149430000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>3721.18</v>
+        <v>7149.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27101</v>
+        <v>1.27562</v>
       </c>
       <c r="B43" t="n">
-        <v>3.64025</v>
+        <v>7.153600000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>3640.25</v>
+        <v>7153.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30141</v>
+        <v>1.30676</v>
       </c>
       <c r="B44" t="n">
-        <v>3.54666</v>
+        <v>7.15748</v>
       </c>
       <c r="C44" t="n">
-        <v>3546.66</v>
+        <v>7157.48</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33188</v>
+        <v>1.33772</v>
       </c>
       <c r="B45" t="n">
-        <v>3.46765</v>
+        <v>7.161090000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>3467.65</v>
+        <v>7161.09</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36305</v>
+        <v>1.36869</v>
       </c>
       <c r="B46" t="n">
-        <v>3.39753</v>
+        <v>7.16444</v>
       </c>
       <c r="C46" t="n">
-        <v>3397.53</v>
+        <v>7164.44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39421</v>
+        <v>1.39966</v>
       </c>
       <c r="B47" t="n">
-        <v>3.34369</v>
+        <v>7.16755</v>
       </c>
       <c r="C47" t="n">
-        <v>3343.69</v>
+        <v>7167.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42517</v>
+        <v>1.43063</v>
       </c>
       <c r="B48" t="n">
-        <v>3.30118</v>
+        <v>7.170380000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>3301.18</v>
+        <v>7170.38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45578</v>
+        <v>1.4616</v>
       </c>
       <c r="B49" t="n">
-        <v>3.25342</v>
+        <v>7.17297</v>
       </c>
       <c r="C49" t="n">
-        <v>3253.42</v>
+        <v>7172.97</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48623</v>
+        <v>1.49256</v>
       </c>
       <c r="B50" t="n">
-        <v>3.19595</v>
+        <v>7.17532</v>
       </c>
       <c r="C50" t="n">
-        <v>3195.95</v>
+        <v>7175.32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.5178</v>
+        <v>1.52352</v>
       </c>
       <c r="B51" t="n">
-        <v>3.13695</v>
+        <v>7.177420000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>3136.95</v>
+        <v>7177.42</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.54914</v>
+        <v>1.55408</v>
       </c>
       <c r="B52" t="n">
-        <v>3.08658</v>
+        <v>7.17932</v>
       </c>
       <c r="C52" t="n">
-        <v>3086.58</v>
+        <v>7179.32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58022</v>
+        <v>1.58463</v>
       </c>
       <c r="B53" t="n">
-        <v>3.04724</v>
+        <v>7.18098</v>
       </c>
       <c r="C53" t="n">
-        <v>3047.24</v>
+        <v>7180.98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61123</v>
+        <v>1.61519</v>
       </c>
       <c r="B54" t="n">
-        <v>3.01487</v>
+        <v>7.18244</v>
       </c>
       <c r="C54" t="n">
-        <v>3014.87</v>
+        <v>7182.44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64247</v>
+        <v>1.64574</v>
       </c>
       <c r="B55" t="n">
-        <v>2.95715</v>
+        <v>7.183680000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>2957.15</v>
+        <v>7183.68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67373</v>
+        <v>1.67638</v>
       </c>
       <c r="B56" t="n">
-        <v>2.91527</v>
+        <v>7.184670000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>2915.27</v>
+        <v>7184.67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70393</v>
+        <v>1.70795</v>
       </c>
       <c r="B57" t="n">
-        <v>2.88733</v>
+        <v>7.18547</v>
       </c>
       <c r="C57" t="n">
-        <v>2887.33</v>
+        <v>7185.47</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73478</v>
+        <v>1.73952</v>
       </c>
       <c r="B58" t="n">
-        <v>2.86359</v>
+        <v>7.18604</v>
       </c>
       <c r="C58" t="n">
-        <v>2863.59</v>
+        <v>7186.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76602</v>
+        <v>1.77096</v>
       </c>
       <c r="B59" t="n">
-        <v>2.81494</v>
+        <v>7.186350000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>2814.94</v>
+        <v>7186.35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79676</v>
+        <v>1.80211</v>
       </c>
       <c r="B60" t="n">
-        <v>2.79332</v>
+        <v>7.18644</v>
       </c>
       <c r="C60" t="n">
-        <v>2793.32</v>
+        <v>7186.44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82757</v>
+        <v>1.83326</v>
       </c>
       <c r="B61" t="n">
-        <v>2.76696</v>
+        <v>7.186310000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>2766.96</v>
+        <v>7186.31</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.85885</v>
+        <v>1.8644</v>
       </c>
       <c r="B62" t="n">
-        <v>2.73179</v>
+        <v>7.18594</v>
       </c>
       <c r="C62" t="n">
-        <v>2731.79</v>
+        <v>7185.94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.88964</v>
+        <v>1.89555</v>
       </c>
       <c r="B63" t="n">
-        <v>2.70101</v>
+        <v>7.18532</v>
       </c>
       <c r="C63" t="n">
-        <v>2701.01</v>
+        <v>7185.32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92018</v>
+        <v>1.9267</v>
       </c>
       <c r="B64" t="n">
-        <v>2.67672</v>
+        <v>7.18448</v>
       </c>
       <c r="C64" t="n">
-        <v>2676.72</v>
+        <v>7184.48</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95179</v>
+        <v>1.95784</v>
       </c>
       <c r="B65" t="n">
-        <v>2.64163</v>
+        <v>7.18339</v>
       </c>
       <c r="C65" t="n">
-        <v>2641.63</v>
+        <v>7183.39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98285</v>
+        <v>1.98899</v>
       </c>
       <c r="B66" t="n">
-        <v>2.61592</v>
+        <v>7.18205</v>
       </c>
       <c r="C66" t="n">
-        <v>2615.92</v>
+        <v>7182.05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01359</v>
+        <v>2.01972</v>
       </c>
       <c r="B67" t="n">
-        <v>2.58421</v>
+        <v>7.180470000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>2584.21</v>
+        <v>7180.47</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04416</v>
+        <v>2.05044</v>
       </c>
       <c r="B68" t="n">
-        <v>2.5519</v>
+        <v>7.17866</v>
       </c>
       <c r="C68" t="n">
-        <v>2551.9</v>
+        <v>7178.66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07614</v>
+        <v>2.08115</v>
       </c>
       <c r="B69" t="n">
-        <v>2.53089</v>
+        <v>7.17659</v>
       </c>
       <c r="C69" t="n">
-        <v>2530.89</v>
+        <v>7176.59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10717</v>
+        <v>2.11188</v>
       </c>
       <c r="B70" t="n">
-        <v>2.50461</v>
+        <v>7.174270000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>2504.61</v>
+        <v>7174.27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13757</v>
+        <v>2.1426</v>
       </c>
       <c r="B71" t="n">
-        <v>2.47011</v>
+        <v>7.171729999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>2470.11</v>
+        <v>7171.73</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16798</v>
+        <v>2.17332</v>
       </c>
       <c r="B72" t="n">
-        <v>2.43348</v>
+        <v>7.16889</v>
       </c>
       <c r="C72" t="n">
-        <v>2433.48</v>
+        <v>7168.89</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20015</v>
+        <v>2.20403</v>
       </c>
       <c r="B73" t="n">
-        <v>2.41709</v>
+        <v>7.16567</v>
       </c>
       <c r="C73" t="n">
-        <v>2417.09</v>
+        <v>7165.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23112</v>
+        <v>2.23537</v>
       </c>
       <c r="B74" t="n">
-        <v>2.39914</v>
+        <v>7.16198</v>
       </c>
       <c r="C74" t="n">
-        <v>2399.14</v>
+        <v>7161.98</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26184</v>
+        <v>2.26715</v>
       </c>
       <c r="B75" t="n">
-        <v>2.37487</v>
+        <v>7.15792</v>
       </c>
       <c r="C75" t="n">
-        <v>2374.87</v>
+        <v>7157.92</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29256</v>
+        <v>2.29893</v>
       </c>
       <c r="B76" t="n">
-        <v>2.34644</v>
+        <v>7.15358</v>
       </c>
       <c r="C76" t="n">
-        <v>2346.44</v>
+        <v>7153.58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32329</v>
+        <v>2.33018</v>
       </c>
       <c r="B77" t="n">
-        <v>2.32099</v>
+        <v>7.14895</v>
       </c>
       <c r="C77" t="n">
-        <v>2320.99</v>
+        <v>7148.95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35472</v>
+        <v>2.36108</v>
       </c>
       <c r="B78" t="n">
-        <v>2.307</v>
+        <v>7.14403</v>
       </c>
       <c r="C78" t="n">
-        <v>2307</v>
+        <v>7144.03</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38473</v>
+        <v>2.39197</v>
       </c>
       <c r="B79" t="n">
-        <v>2.29987</v>
+        <v>7.13887</v>
       </c>
       <c r="C79" t="n">
-        <v>2299.87</v>
+        <v>7138.87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4152</v>
+        <v>2.42287</v>
       </c>
       <c r="B80" t="n">
-        <v>2.28839</v>
+        <v>7.13338</v>
       </c>
       <c r="C80" t="n">
-        <v>2288.39</v>
+        <v>7133.38</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4453</v>
+        <v>2.45286</v>
       </c>
       <c r="B81" t="n">
-        <v>2.29909</v>
+        <v>7.12781</v>
       </c>
       <c r="C81" t="n">
-        <v>2299.09</v>
+        <v>7127.81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47501</v>
+        <v>2.48393</v>
       </c>
       <c r="B82" t="n">
-        <v>2.30039</v>
+        <v>7.12176</v>
       </c>
       <c r="C82" t="n">
-        <v>2300.39</v>
+        <v>7121.76</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50359</v>
+        <v>2.51593</v>
       </c>
       <c r="B83" t="n">
-        <v>2.27177</v>
+        <v>7.11515</v>
       </c>
       <c r="C83" t="n">
-        <v>2271.77</v>
+        <v>7115.15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53449</v>
+        <v>2.54792</v>
       </c>
       <c r="B84" t="n">
-        <v>2.26857</v>
+        <v>7.10811</v>
       </c>
       <c r="C84" t="n">
-        <v>2268.57</v>
+        <v>7108.11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.56758</v>
+        <v>2.57993</v>
       </c>
       <c r="B85" t="n">
-        <v>2.28299</v>
+        <v>7.10078</v>
       </c>
       <c r="C85" t="n">
-        <v>2282.99</v>
+        <v>7100.78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60085</v>
+        <v>2.61192</v>
       </c>
       <c r="B86" t="n">
-        <v>2.25696</v>
+        <v>7.09311</v>
       </c>
       <c r="C86" t="n">
-        <v>2256.96</v>
+        <v>7093.11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63413</v>
+        <v>2.64393</v>
       </c>
       <c r="B87" t="n">
-        <v>2.24807</v>
+        <v>7.08506</v>
       </c>
       <c r="C87" t="n">
-        <v>2248.07</v>
+        <v>7085.06</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66741</v>
+        <v>2.67592</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25091</v>
+        <v>7.07652</v>
       </c>
       <c r="C88" t="n">
-        <v>2250.91</v>
+        <v>7076.52</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70046</v>
+        <v>2.70785</v>
       </c>
       <c r="B89" t="n">
-        <v>2.24933</v>
+        <v>7.06773</v>
       </c>
       <c r="C89" t="n">
-        <v>2249.33</v>
+        <v>7067.73</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7316</v>
+        <v>2.73894</v>
       </c>
       <c r="B90" t="n">
-        <v>2.23225</v>
+        <v>7.058590000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>2232.25</v>
+        <v>7058.59</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76235</v>
+        <v>2.77002</v>
       </c>
       <c r="B91" t="n">
-        <v>2.21637</v>
+        <v>7.049020000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>2216.37</v>
+        <v>7049.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79307</v>
+        <v>2.80111</v>
       </c>
       <c r="B92" t="n">
-        <v>2.20153</v>
+        <v>7.038939999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>2201.53</v>
+        <v>7038.94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82379</v>
+        <v>2.83219</v>
       </c>
       <c r="B93" t="n">
-        <v>2.19404</v>
+        <v>7.02831</v>
       </c>
       <c r="C93" t="n">
-        <v>2194.04</v>
+        <v>7028.31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85451</v>
+        <v>2.86328</v>
       </c>
       <c r="B94" t="n">
-        <v>2.19315</v>
+        <v>7.01712</v>
       </c>
       <c r="C94" t="n">
-        <v>2193.15</v>
+        <v>7017.12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88523</v>
+        <v>2.89437</v>
       </c>
       <c r="B95" t="n">
-        <v>2.18548</v>
+        <v>7.00522</v>
       </c>
       <c r="C95" t="n">
-        <v>2185.48</v>
+        <v>7005.22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91595</v>
+        <v>2.92545</v>
       </c>
       <c r="B96" t="n">
-        <v>2.16626</v>
+        <v>6.99267</v>
       </c>
       <c r="C96" t="n">
-        <v>2166.26</v>
+        <v>6992.67</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94667</v>
+        <v>2.95654</v>
       </c>
       <c r="B97" t="n">
-        <v>2.15043</v>
+        <v>6.97932</v>
       </c>
       <c r="C97" t="n">
-        <v>2150.43</v>
+        <v>6979.32</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97607</v>
+        <v>2.98762</v>
       </c>
       <c r="B98" t="n">
-        <v>2.14209</v>
+        <v>6.965380000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>2142.09</v>
+        <v>6965.38</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00454</v>
+        <v>3.01871</v>
       </c>
       <c r="B99" t="n">
-        <v>2.14214</v>
+        <v>6.95086</v>
       </c>
       <c r="C99" t="n">
-        <v>2142.14</v>
+        <v>6950.86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03279</v>
+        <v>3.04979</v>
       </c>
       <c r="B100" t="n">
-        <v>2.12016</v>
+        <v>6.935840000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>2120.16</v>
+        <v>6935.84</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06095</v>
+        <v>3.08088</v>
       </c>
       <c r="B101" t="n">
-        <v>2.11396</v>
+        <v>6.92027</v>
       </c>
       <c r="C101" t="n">
-        <v>2113.96</v>
+        <v>6920.27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.08911</v>
+        <v>3.11196</v>
       </c>
       <c r="B102" t="n">
-        <v>2.1117</v>
+        <v>6.90394</v>
       </c>
       <c r="C102" t="n">
-        <v>2111.7</v>
+        <v>6903.94</v>
       </c>
     </row>
   </sheetData>
